--- a/8_Supplementary Material/ST6_KEGG_2021_Human_terms_sorted_with_all.xlsx
+++ b/8_Supplementary Material/ST6_KEGG_2021_Human_terms_sorted_with_all.xlsx
@@ -5,24 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a28782ebd37fa75/Documentos/Tesis de Grado/Protocolo/4_Análisis de Enriquecimiento Funcional/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Protocolo_Reposicionamiento_Probioticos\8_Supplementary Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_076185E9937E8A0E62355476585DCE3A8747F71D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{936FF6AE-03D8-4289-BD41-0AE1F4469FEF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1307653-8B58-4BAC-8515-9F6704829C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bacillus subtilis CW14" sheetId="1" r:id="rId1"/>
-    <sheet name="Fusobacterium nucleatum" sheetId="2" r:id="rId2"/>
-    <sheet name="Propionibacterium freudenreichi" sheetId="3" r:id="rId3"/>
+    <sheet name="Propionibacterium freudenreichi" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>Genes</t>
   </si>
@@ -259,279 +258,6 @@
   </si>
   <si>
     <t>7.626980793425789e-06, 0.0136392601375747</t>
-  </si>
-  <si>
-    <t>INHBC</t>
-  </si>
-  <si>
-    <t>Cytokine-cytokine receptor interaction, TGF-beta signaling pathway</t>
-  </si>
-  <si>
-    <t>1.860485947890529e-17, 0.0135372165200134</t>
-  </si>
-  <si>
-    <t>FOS</t>
-  </si>
-  <si>
-    <t>TNF signaling pathway, Rheumatoid arthritis, IL-17 signaling pathway, Lipid and atherosclerosis, Pertussis, Toll-like receptor signaling pathway, Chagas disease, Measles, Coronavirus disease, Kaposi sarcoma-associated herpesvirus infection, Yersinia infection, Fluid shear stress and atherosclerosis, Leishmaniasis, MAPK signaling pathway, Osteoclast differentiation, Human T-cell leukemia virus 1 infection, Th17 cell differentiation, Hepatitis B, Oxytocin signaling pathway, Non-alcoholic fatty liver disease, T cell receptor signaling pathway, Salmonella infection, Pathogenic Escherichia coli infection, Prolactin signaling pathway, Estrogen signaling pathway, Apoptosis</t>
-  </si>
-  <si>
-    <t>7.381870203598573e-21, 5.0193100412991314e-18, 2.8667185795181054e-15, 2.728048793894201e-12, 3.4970369992610075e-08, 3.4970369992610075e-08, 3.793396317367466e-07, 4.797011860180082e-06, 5.441862351602041e-06, 7.626980793425789e-06, 0.0003156562641710188, 0.0003311594767681358, 0.000969576020914642, 0.0009896944238172317, 0.0011834271272442, 0.0036356612242499, 0.0037963885346754, 0.0038285491876088, 0.0136392601375747, 0.0137318067579092, 0.0171354500913545, 0.0214982249147524, 0.0328091672181147, 0.0343308278359417, 0.0395081312266154, 0.0437468186456016</t>
-  </si>
-  <si>
-    <t>STAT5A</t>
-  </si>
-  <si>
-    <t>Measles, AGE-RAGE signaling pathway in diabetic complications, Necroptosis, Human T-cell leukemia virus 1 infection, Th17 cell differentiation, Hepatitis B, JAK-STAT signaling pathway, Prolactin signaling pathway</t>
-  </si>
-  <si>
-    <t>4.797011860180082e-06, 4.692268850982209e-05, 0.0006582734394430797, 0.0036356612242499, 0.0037963885346754, 0.0038285491876088, 0.0162059085937925, 0.0343308278359417</t>
-  </si>
-  <si>
-    <t>THBS1</t>
-  </si>
-  <si>
-    <t>Malaria, TGF-beta signaling pathway</t>
-  </si>
-  <si>
-    <t>4.927953737571013e-07, 0.0135372165200134</t>
-  </si>
-  <si>
-    <t>IL1B</t>
-  </si>
-  <si>
-    <t>TNF signaling pathway, Rheumatoid arthritis, Cytokine-cytokine receptor interaction, IL-17 signaling pathway, NF-kappa B signaling pathway, Lipid and atherosclerosis, Legionellosis, Pertussis, Toll-like receptor signaling pathway, NOD-like receptor signaling pathway, Influenza A, Chagas disease, Malaria, Measles, Coronavirus disease, AGE-RAGE signaling pathway in diabetic complications, Amoebiasis, Yersinia infection, Fluid shear stress and atherosclerosis, Hematopoietic cell lineage, Cytosolic DNA-sensing pathway, C-type lectin receptor signaling pathway, Necroptosis, Human cytomegalovirus infection, Leishmaniasis, MAPK signaling pathway, Osteoclast differentiation, Th17 cell differentiation, Inflammatory bowel disease, Shigellosis, African trypanosomiasis, Prion disease, Graft-versus-host disease, Type I diabetes mellitus, Non-alcoholic fatty liver disease, Salmonella infection, Pathogenic Escherichia coli infection</t>
-  </si>
-  <si>
-    <t>7.381870203598573e-21, 5.0193100412991314e-18, 1.860485947890529e-17, 2.8667185795181054e-15, 1.1577523254277826e-14, 2.728048793894201e-12, 1.0442350416972395e-10, 3.4970369992610075e-08, 3.4970369992610075e-08, 5.6616998361679246e-08, 3.439446871080842e-07, 3.793396317367466e-07, 4.927953737571013e-07, 4.797011860180082e-06, 5.441862351602041e-06, 4.692268850982209e-05, 5.084464667897712e-05, 0.0003156562641710188, 0.0003311594767681358, 0.00039989308344330783, 0.000446870364326348, 0.0004860933150124579, 0.0006582734394430797, 0.0008781287132390562, 0.000969576020914642, 0.0009896944238172317, 0.0011834271272442, 0.0037963885346754, 0.004352001251164, 0.006209960659943, 0.0078396225074666, 0.0101190634448794, 0.0105275552690754, 0.0110106831065822, 0.0137318067579092, 0.0214982249147524, 0.0328091672181147</t>
-  </si>
-  <si>
-    <t>IRF1</t>
-  </si>
-  <si>
-    <t>TNF signaling pathway, Pertussis, C-type lectin receptor signaling pathway, Prolactin signaling pathway</t>
-  </si>
-  <si>
-    <t>7.381870203598573e-21, 3.4970369992610075e-08, 0.0004860933150124579, 0.0343308278359417</t>
-  </si>
-  <si>
-    <t>CCL20</t>
-  </si>
-  <si>
-    <t>TNF signaling pathway, Rheumatoid arthritis, Cytokine-cytokine receptor interaction, Viral protein interaction with cytokine and cytokine receptor, IL-17 signaling pathway, Chemokine signaling pathway</t>
-  </si>
-  <si>
-    <t>7.381870203598573e-21, 5.0193100412991314e-18, 1.860485947890529e-17, 3.083583547860433e-16, 2.8667185795181054e-15, 1.025246807187547e-09</t>
-  </si>
-  <si>
-    <t>ID1</t>
-  </si>
-  <si>
-    <t>TGF-beta signaling pathway</t>
-  </si>
-  <si>
-    <t>0.0135372165200134</t>
-  </si>
-  <si>
-    <t>IL1A</t>
-  </si>
-  <si>
-    <t>Rheumatoid arthritis, Cytokine-cytokine receptor interaction, Pertussis, Influenza A, Measles, AGE-RAGE signaling pathway in diabetic complications, Fluid shear stress and atherosclerosis, Hematopoietic cell lineage, Necroptosis, Leishmaniasis, MAPK signaling pathway, Osteoclast differentiation, Inflammatory bowel disease, Prion disease, Graft-versus-host disease, Type I diabetes mellitus, Non-alcoholic fatty liver disease</t>
-  </si>
-  <si>
-    <t>5.0193100412991314e-18, 1.860485947890529e-17, 3.4970369992610075e-08, 3.439446871080842e-07, 4.797011860180082e-06, 4.692268850982209e-05, 0.0003311594767681358, 0.00039989308344330783, 0.0006582734394430797, 0.000969576020914642, 0.0009896944238172317, 0.0011834271272442, 0.004352001251164, 0.0101190634448794, 0.0105275552690754, 0.0110106831065822, 0.0137318067579092</t>
-  </si>
-  <si>
-    <t>ICAM1</t>
-  </si>
-  <si>
-    <t>TNF signaling pathway, Rheumatoid arthritis, NF-kappa B signaling pathway, Lipid and atherosclerosis, Influenza A, Malaria, Kaposi sarcoma-associated herpesvirus infection, AGE-RAGE signaling pathway in diabetic complications, Fluid shear stress and atherosclerosis, Human T-cell leukemia virus 1 infection, African trypanosomiasis, Staphylococcus aureus infection, Epstein-Barr virus infection</t>
-  </si>
-  <si>
-    <t>7.381870203598573e-21, 5.0193100412991314e-18, 1.1577523254277826e-14, 2.728048793894201e-12, 3.439446871080842e-07, 4.927953737571013e-07, 7.626980793425789e-06, 4.692268850982209e-05, 0.0003311594767681358, 0.0036356612242499, 0.0078396225074666, 0.0136392601375747, 0.0349785878612361</t>
-  </si>
-  <si>
-    <t>CAMK1G</t>
-  </si>
-  <si>
-    <t>ETS1</t>
-  </si>
-  <si>
-    <t>Human T-cell leukemia virus 1 infection</t>
-  </si>
-  <si>
-    <t>0.0036356612242499</t>
-  </si>
-  <si>
-    <t>SOD2</t>
-  </si>
-  <si>
-    <t>Lipid and atherosclerosis, Longevity regulating pathway</t>
-  </si>
-  <si>
-    <t>2.728048793894201e-12, 0.016316894024873</t>
-  </si>
-  <si>
-    <t>CYP1A1</t>
-  </si>
-  <si>
-    <t>Lipid and atherosclerosis</t>
-  </si>
-  <si>
-    <t>2.728048793894201e-12</t>
-  </si>
-  <si>
-    <t>DNAJB1</t>
-  </si>
-  <si>
-    <t>Influenza A, Protein processing in endoplasmic reticulum</t>
-  </si>
-  <si>
-    <t>3.439446871080842e-07, 0.0191474188605767</t>
-  </si>
-  <si>
-    <t>BDKRB2</t>
-  </si>
-  <si>
-    <t>Chagas disease, Complement and coagulation cascades</t>
-  </si>
-  <si>
-    <t>3.793396317367466e-07, 0.0101190634448794</t>
-  </si>
-  <si>
-    <t>DUSP2</t>
-  </si>
-  <si>
-    <t>MAPK signaling pathway</t>
-  </si>
-  <si>
-    <t>0.0009896944238172317</t>
-  </si>
-  <si>
-    <t>NR4A3</t>
-  </si>
-  <si>
-    <t>NFKBIA</t>
-  </si>
-  <si>
-    <t>TNF signaling pathway, IL-17 signaling pathway, NF-kappa B signaling pathway, Lipid and atherosclerosis, Legionellosis, Chemokine signaling pathway, Toll-like receptor signaling pathway, NOD-like receptor signaling pathway, Influenza A, Chagas disease, Measles, Coronavirus disease, Kaposi sarcoma-associated herpesvirus infection, Epithelial cell signaling in Helicobacter pylori infection, Yersinia infection, Cytosolic DNA-sensing pathway, C-type lectin receptor signaling pathway, Toxoplasmosis, Human cytomegalovirus infection, Leishmaniasis, Osteoclast differentiation, Human T-cell leukemia virus 1 infection, Th17 cell differentiation, Hepatitis B, RIG-I-like receptor signaling pathway, Shigellosis, T cell receptor signaling pathway, Salmonella infection, Pathogenic Escherichia coli infection, Epstein-Barr virus infection, Apoptosis</t>
-  </si>
-  <si>
-    <t>7.381870203598573e-21, 2.8667185795181054e-15, 1.1577523254277826e-14, 2.728048793894201e-12, 1.0442350416972395e-10, 1.025246807187547e-09, 3.4970369992610075e-08, 5.6616998361679246e-08, 3.439446871080842e-07, 3.793396317367466e-07, 4.797011860180082e-06, 5.441862351602041e-06, 7.626980793425789e-06, 6.289942382925588e-05, 0.0003156562641710188, 0.000446870364326348, 0.0004860933150124579, 0.0006805696653135726, 0.0008781287132390562, 0.000969576020914642, 0.0011834271272442, 0.0036356612242499, 0.0037963885346754, 0.0038285491876088, 0.0055894278140253, 0.006209960659943, 0.0171354500913545, 0.0214982249147524, 0.0328091672181147, 0.0349785878612361, 0.0437468186456016</t>
-  </si>
-  <si>
-    <t>HSPH1</t>
-  </si>
-  <si>
-    <t>Protein processing in endoplasmic reticulum</t>
-  </si>
-  <si>
-    <t>0.0191474188605767</t>
-  </si>
-  <si>
-    <t>MASP2</t>
-  </si>
-  <si>
-    <t>Coronavirus disease, Complement and coagulation cascades, Staphylococcus aureus infection</t>
-  </si>
-  <si>
-    <t>5.441862351602041e-06, 0.0101190634448794, 0.0136392601375747</t>
-  </si>
-  <si>
-    <t>HSPA1A</t>
-  </si>
-  <si>
-    <t>CFB</t>
-  </si>
-  <si>
-    <t>HSPA1B</t>
-  </si>
-  <si>
-    <t>SDC4</t>
-  </si>
-  <si>
-    <t>Fluid shear stress and atherosclerosis</t>
-  </si>
-  <si>
-    <t>0.0003311594767681358</t>
-  </si>
-  <si>
-    <t>TICAM1</t>
-  </si>
-  <si>
-    <t>NF-kappa B signaling pathway, Lipid and atherosclerosis, Pertussis, Toll-like receptor signaling pathway, NOD-like receptor signaling pathway, Influenza A, Chagas disease, Kaposi sarcoma-associated herpesvirus infection, Yersinia infection, Necroptosis, Hepatitis B</t>
-  </si>
-  <si>
-    <t>1.1577523254277826e-14, 2.728048793894201e-12, 3.4970369992610075e-08, 3.4970369992610075e-08, 5.6616998361679246e-08, 3.439446871080842e-07, 3.793396317367466e-07, 7.626980793425789e-06, 0.0003156562641710188, 0.0006582734394430797, 0.0038285491876088</t>
-  </si>
-  <si>
-    <t>IL23A</t>
-  </si>
-  <si>
-    <t>Rheumatoid arthritis, Cytokine-cytokine receptor interaction, Pertussis, C-type lectin receptor signaling pathway, Th17 cell differentiation, Inflammatory bowel disease, JAK-STAT signaling pathway</t>
-  </si>
-  <si>
-    <t>5.0193100412991314e-18, 1.860485947890529e-17, 3.4970369992610075e-08, 0.0004860933150124579, 0.0037963885346754, 0.004352001251164, 0.0162059085937925</t>
-  </si>
-  <si>
-    <t>LIF</t>
-  </si>
-  <si>
-    <t>TNF signaling pathway, Cytokine-cytokine receptor interaction, JAK-STAT signaling pathway</t>
-  </si>
-  <si>
-    <t>7.381870203598573e-21, 1.860485947890529e-17, 0.0162059085937925</t>
-  </si>
-  <si>
-    <t>OXTR</t>
-  </si>
-  <si>
-    <t>PTAFR</t>
-  </si>
-  <si>
-    <t>Staphylococcus aureus infection</t>
-  </si>
-  <si>
-    <t>H3C4</t>
-  </si>
-  <si>
-    <t>Transcriptional misregulation in cancer, Shigellosis</t>
-  </si>
-  <si>
-    <t>0.0017127695399908, 0.006209960659943</t>
-  </si>
-  <si>
-    <t>SMAD7</t>
-  </si>
-  <si>
-    <t>Hippo signaling pathway</t>
-  </si>
-  <si>
-    <t>CCN2</t>
-  </si>
-  <si>
-    <t>SNAI2</t>
-  </si>
-  <si>
-    <t>ID2</t>
-  </si>
-  <si>
-    <t>WNT16</t>
-  </si>
-  <si>
-    <t>BBC3</t>
-  </si>
-  <si>
-    <t>CCND1</t>
-  </si>
-  <si>
-    <t>GLI2</t>
-  </si>
-  <si>
-    <t>FZD1</t>
-  </si>
-  <si>
-    <t>WNT9A</t>
   </si>
   <si>
     <t>CDKN1A</t>
@@ -939,13 +665,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="117.85546875" style="3" customWidth="1"/>
@@ -1435,7 +1161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>73</v>
       </c>
@@ -1473,626 +1199,6 @@
       </c>
       <c r="F26" s="3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1.9399996511914299</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3.8370555495942398</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="300" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="3">
-        <v>-1.84272770160375</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3.5868755775796699</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1.8230495214531901</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3.5382831931321901</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1.7764927668638</v>
-      </c>
-      <c r="E30" s="3">
-        <v>3.4259230965327401</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1.74670715733247</v>
-      </c>
-      <c r="E31" s="3">
-        <v>3.3559172848950598</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1.7410915722007001</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3.3428800116191599</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1.7341166924648901</v>
-      </c>
-      <c r="E33" s="3">
-        <v>3.32675746757163</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="3">
-        <v>-1.69131120700481</v>
-      </c>
-      <c r="E34" s="3">
-        <v>3.22950086581108</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1.6784696096584999</v>
-      </c>
-      <c r="E35" s="3">
-        <v>3.2008822585104499</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1.66923465166507</v>
-      </c>
-      <c r="E36" s="3">
-        <v>3.18045825734968</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1.6200546337203601</v>
-      </c>
-      <c r="E37" s="3">
-        <v>3.0738667652756502</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1.50201262659304</v>
-      </c>
-      <c r="E38" s="3">
-        <v>2.8323756655198902</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1.4124873056793701</v>
-      </c>
-      <c r="E39" s="3">
-        <v>2.6619570716975098</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1.3635432835192001</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2.5731637747147098</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="3">
-        <v>-1.3473069409664999</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2.5443672834430799</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1.2844776854219599</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2.4359384583913899</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="3">
-        <v>-1.28342949247757</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2.4341692652545501</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1.2707264631545701</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2.4128303203208099</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="390" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1.1930597833147101</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2.28637141297789</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="3">
-        <v>-1.1901652837157599</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2.28178883204879</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1.1892265524211001</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2.2803046030176399</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="3">
-        <v>-1.18157099573581</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2.2682363797850398</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1.1780893786798501</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2.2627691057334101</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="3">
-        <v>-1.1638926633695601</v>
-      </c>
-      <c r="E50" s="3">
-        <v>2.2406117204894498</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="3">
-        <v>1.1413243504550299</v>
-      </c>
-      <c r="E51" s="3">
-        <v>2.2058341917805402</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1.1215359181926301</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2.1757848708167802</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1.1192779620959701</v>
-      </c>
-      <c r="E53" s="3">
-        <v>2.1723822222615601</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1.11082896010896</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2.1596970598352998</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="3">
-        <v>1.07849535280287</v>
-      </c>
-      <c r="E55" s="3">
-        <v>2.1118324135321198</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1.07278441451032</v>
-      </c>
-      <c r="E56" s="3">
-        <v>2.1034892053243501</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D57" s="3">
-        <v>-1.0642991677858</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2.0911537923833299</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2101,257 +1207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D9CE44-8E3E-43B3-9E5B-12EE4CF372A4}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2">
-        <v>2.4597982381170001E-3</v>
-      </c>
-      <c r="D2">
-        <v>-2.33628504123195</v>
-      </c>
-      <c r="E2">
-        <v>5.0500057874398303</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3">
-        <v>2.4597982381170001E-3</v>
-      </c>
-      <c r="D3">
-        <v>-2.274382389696</v>
-      </c>
-      <c r="E3">
-        <v>4.8379048314050204</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4">
-        <v>2.4597982381170001E-3</v>
-      </c>
-      <c r="D4">
-        <v>-1.96078766346563</v>
-      </c>
-      <c r="E4">
-        <v>3.89274451850007</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5">
-        <v>2.4597982381170001E-3</v>
-      </c>
-      <c r="D5">
-        <v>-1.9487547713803099</v>
-      </c>
-      <c r="E5">
-        <v>3.8604118527361799</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6">
-        <v>2.4597982381170001E-3</v>
-      </c>
-      <c r="D6">
-        <v>1.5849500975981701</v>
-      </c>
-      <c r="E6">
-        <v>2.9999742085416798</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7">
-        <v>2.4597982381170001E-3</v>
-      </c>
-      <c r="D7">
-        <v>1.43690875360341</v>
-      </c>
-      <c r="E7">
-        <v>2.7074013171844298</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8">
-        <v>2.4597982381170001E-3</v>
-      </c>
-      <c r="D8">
-        <v>-1.3121021873860901</v>
-      </c>
-      <c r="E8">
-        <v>2.4830308521300699</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9">
-        <v>2.4597982381170001E-3</v>
-      </c>
-      <c r="D9">
-        <v>-1.28429083314915</v>
-      </c>
-      <c r="E9">
-        <v>2.4356229855087399</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10">
-        <v>2.4597982381170001E-3</v>
-      </c>
-      <c r="D10">
-        <v>-1.1028959751858101</v>
-      </c>
-      <c r="E10">
-        <v>2.1478540676987699</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11">
-        <v>2.4597982381170001E-3</v>
-      </c>
-      <c r="D11">
-        <v>1.00358909019222</v>
-      </c>
-      <c r="E11">
-        <v>2.0049817296188399</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364273C1-2E1E-4A41-89B4-C71038D4D744}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -2383,13 +1246,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>4.2055346686711204</v>
@@ -2403,13 +1266,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>2.84166765118156</v>
@@ -2423,13 +1286,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>2.43711326108071</v>
@@ -2443,13 +1306,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>1.85043752130348</v>
@@ -2463,13 +1326,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>-1.7471739493340801</v>
@@ -2483,13 +1346,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>-1.46336238506524</v>
@@ -2503,13 +1366,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="D8">
         <v>-1.27745871070159</v>
@@ -2523,13 +1386,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>-1.2276726373431099</v>
@@ -2543,13 +1406,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="D10">
         <v>1.2190798425784299</v>
@@ -2563,13 +1426,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>1.2052607705729901</v>
@@ -2583,13 +1446,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>-1.1397668995565799</v>
